--- a/Dados Brutos/01- Honras 2018-2019 Novo indicador.xlsx
+++ b/Dados Brutos/01- Honras 2018-2019 Novo indicador.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\CODIV\GEROR\04 - Controle da DPF Garantida\Relatórios e Informes\RQG - Relatório Quadrimestral de Garantias\Relatórios\2019\2019.1\Planilhas SID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GT-CEAD\Projeto Garantias\Dados Brutos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F56196-BFFA-40E9-81ED-87671C11300D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01- Honras 2018-2019 Novo indic" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01- Honras 2018-2019 Novo indic'!$A$10:$W$466</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4630" uniqueCount="291">
   <si>
     <t>Relatório de Honras e Atrasos</t>
   </si>
@@ -887,11 +891,17 @@
   <si>
     <t>17944.000420/2013-61</t>
   </si>
+  <si>
+    <t>Dia do Pagamento da Honra</t>
+  </si>
+  <si>
+    <t>Data do Vencimento da Obrigação/Parcela</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1413,10 +1423,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1702,17 +1712,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
+    <col min="22" max="22" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1755,8 +1784,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1780,13 +1817,13 @@
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
